--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuwstout-my.sharepoint.com/personal/pedersonj8674_my_uwstout_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeyerCarter\Documents\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{6674E57A-B758-4564-BF73-EEB5F7227901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8325D48-DC3F-4AE5-A1E9-306EB77CC782}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E30080-11F3-43EF-B3F8-CECDF2351E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Pin</t>
   </si>
@@ -182,12 +182,6 @@
     <t>D51</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
@@ -225,6 +219,9 @@
   </si>
   <si>
     <t>D53</t>
+  </si>
+  <si>
+    <t>D8</t>
   </si>
 </sst>
 </file>
@@ -578,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="306" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -848,7 +845,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -856,7 +853,7 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -864,15 +861,15 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -888,23 +885,23 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -923,7 +920,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
         <v>45</v>
@@ -931,7 +928,7 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
@@ -939,7 +936,7 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
@@ -950,7 +947,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeyerCarter\Documents\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E30080-11F3-43EF-B3F8-CECDF2351E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75404CD8-8A01-4782-A309-D8CC04D1DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="306" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="306" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeyerCarter\Documents\Comp-Sci-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75404CD8-8A01-4782-A309-D8CC04D1DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD793C15-B1DA-4C1A-8809-98060A304C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Pin</t>
   </si>
@@ -107,9 +107,6 @@
     <t>D11</t>
   </si>
   <si>
-    <t xml:space="preserve">Wind Speed </t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Direction </t>
+  </si>
+  <si>
+    <t>WindSpeed</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="306" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +699,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -707,21 +710,24 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -729,26 +735,26 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -756,18 +762,18 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -775,7 +781,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -783,18 +789,18 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -810,39 +816,39 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -850,26 +856,26 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -885,23 +891,23 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -920,34 +926,34 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD793C15-B1DA-4C1A-8809-98060A304C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F7B3E-14B5-4C20-BA09-423773A01D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Pin</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>10k resistor</t>
   </si>
   <si>
@@ -225,6 +222,12 @@
   </si>
   <si>
     <t>WindSpeed</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +702,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -716,64 +719,72 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+      <c r="D25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -781,37 +792,37 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -835,7 +846,7 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -843,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -851,7 +862,7 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -863,30 +874,35 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
       <c r="D39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
         <v>48</v>
       </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -897,31 +913,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -942,18 +958,10 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
         <v>58</v>
-      </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F7B3E-14B5-4C20-BA09-423773A01D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527F66C-7A5B-4511-9864-918AC4C54823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Pin</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>5v and EN</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow Taped Bundle</t>
+  </si>
+  <si>
+    <t>Non Taped</t>
   </si>
 </sst>
 </file>
@@ -579,17 +591,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
-  <dimension ref="B2:F50"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -700,7 +713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -711,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -725,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -736,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -744,7 +757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -755,7 +768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -763,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -774,7 +787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -782,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -790,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -798,7 +811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -808,40 +821,94 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -849,7 +916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -857,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -865,7 +932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -873,12 +940,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>51</v>
       </c>
@@ -889,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -897,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -905,7 +972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -913,7 +980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>54</v>
       </c>
@@ -924,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -932,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>55</v>
       </c>
@@ -940,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>56</v>
       </c>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527F66C-7A5B-4511-9864-918AC4C54823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B7DF8-46CE-457E-8983-418EE38C6BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>5v and EN</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Non Taped</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -822,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
         <v>66</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -896,13 +896,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>39</v>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B7DF8-46CE-457E-8983-418EE38C6BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6501F38-4098-4ABC-8510-023D101D4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Pin</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>D3</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>pin</t>
   </si>
 </sst>
 </file>
@@ -255,12 +261,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -275,8 +293,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,6 +623,8 @@
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -713,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -724,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -738,7 +760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -749,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -757,7 +779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -768,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -776,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -787,7 +809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -795,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -803,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -811,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -824,91 +846,127 @@
       <c r="E30" t="s">
         <v>65</v>
       </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -916,7 +974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -924,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -932,7 +990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -940,12 +998,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>51</v>
       </c>
@@ -956,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -964,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -972,7 +1030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>50</v>
       </c>
@@ -980,7 +1038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>54</v>
       </c>
@@ -991,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>55</v>
       </c>
@@ -1007,7 +1065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>56</v>
       </c>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6501F38-4098-4ABC-8510-023D101D4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F7180-08D7-4A64-AF9E-ACF726DDA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Pin</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>Blue  (dataPin)</t>
   </si>
   <si>
@@ -246,6 +243,15 @@
   </si>
   <si>
     <t>pin</t>
+  </si>
+  <si>
+    <t>Female order</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -613,13 +619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -627,7 +633,7 @@
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -638,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -649,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -657,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -665,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -673,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -684,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -692,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -700,44 +706,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -748,24 +783,24 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -773,26 +808,26 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -800,18 +835,18 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -819,7 +854,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -827,39 +862,39 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
         <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
         <v>65</v>
       </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -870,113 +905,113 @@
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -984,31 +1019,31 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1024,23 +1059,23 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1059,34 +1094,34 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Pins.xlsx
+++ b/Pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedersonJosh\GitHub\Research\Comp-Sci-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeyerCarter\Documents\Comp-Sci-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F7180-08D7-4A64-AF9E-ACF726DDA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E87AB-BE5E-4C29-873D-596E5F9B6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
+    <workbookView minimized="1" xWindow="4908" yWindow="432" windowWidth="17280" windowHeight="9960" xr2:uid="{900EE39F-17EC-44C3-BE32-FFBEBC0E6A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,8 +258,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,10 +307,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,13 +628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAF1C6D-A6B7-405C-940B-7B95F136D7C4}">
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -644,14 +653,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -679,14 +688,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -711,20 +720,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -770,14 +779,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -795,14 +804,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -814,14 +823,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -833,14 +842,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -868,32 +877,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="30" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1038,14 +1047,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="40" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1073,14 +1082,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="45" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1126,5 +1135,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>